--- a/evaluate_model/final_report.xlsx
+++ b/evaluate_model/final_report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Thesis\evaluate_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8665909F-6D94-4DDC-9C4B-C289523BB4A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC0662A-32BB-4C74-B9B8-70C8FABA28FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,6 +117,20 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF7187C0"/>
+      <color rgb="FFFF618D"/>
+      <color rgb="FF93003A"/>
+      <color rgb="FFFF005E"/>
+      <color rgb="FF0D1B9E"/>
+      <color rgb="FF4C51B1"/>
+      <color rgb="FFB8B89C"/>
+      <color rgb="FF273AED"/>
+      <color rgb="FF6473BC"/>
+      <color rgb="FFFF005B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -143,48 +157,19 @@
   </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10790048118985127"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.86987729658792656"/>
+          <c:h val="0.6714577865266842"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -204,13 +189,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:srgbClr val="0D1B9E"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -325,7 +309,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BB05-491E-A962-8B8C314989AE}"/>
+              <c16:uniqueId val="{00000000-BBCA-4D42-B286-842791465A06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -345,13 +329,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:srgbClr val="7187C0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -466,7 +449,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BB05-491E-A962-8B8C314989AE}"/>
+              <c16:uniqueId val="{00000001-BBCA-4D42-B286-842791465A06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -486,13 +469,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:srgbClr val="FF618D"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -607,7 +589,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BB05-491E-A962-8B8C314989AE}"/>
+              <c16:uniqueId val="{00000002-BBCA-4D42-B286-842791465A06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -627,15 +609,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:srgbClr val="93003A"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -750,7 +729,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BB05-491E-A962-8B8C314989AE}"/>
+              <c16:uniqueId val="{00000003-BBCA-4D42-B286-842791465A06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -762,27 +741,82 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="1943806751"/>
-        <c:axId val="1943801759"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1377730255"/>
+        <c:axId val="1377729839"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="1943806751"/>
+        <c:axId val="1377730255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Georgia" panose="02040502050405020303" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Georgia" panose="02040502050405020303" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -793,7 +827,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="Georgia" panose="02040502050405020303" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -803,7 +840,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1943801759"/>
+        <c:crossAx val="1377729839"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -811,9 +848,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1943801759"/>
+        <c:axId val="1377729839"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-2000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -831,14 +869,71 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Georgia" panose="02040502050405020303" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Georgia" panose="02040502050405020303" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -849,7 +944,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="Georgia" panose="02040502050405020303" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -859,7 +957,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1943806751"/>
+        <c:crossAx val="1377730255"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -872,12 +970,38 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79628578887658807"/>
+          <c:y val="0.18797052963717031"/>
+          <c:w val="0.18300560073276229"/>
+          <c:h val="0.25607850602013471"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
       <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:pattFill prst="pct10">
+          <a:fgClr>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -888,7 +1012,10 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="Georgia" panose="02040502050405020303" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
@@ -915,7 +1042,12 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -925,7 +1057,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Georgia" panose="02040502050405020303" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -939,10 +1073,13 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -976,7 +1113,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -999,6 +1136,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -1169,23 +1317,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1290,8 +1437,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1423,20 +1570,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1473,23 +1619,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>188706</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9599</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>294025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>96981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>481501</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>42593</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>501843</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160096</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{437BE171-8A74-4649-B0AA-F3566F1A2D11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0FC2D62-9272-4AB3-A0DA-5601103C3964}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1775,8 +1921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/evaluate_model/final_report.xlsx
+++ b/evaluate_model/final_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Thesis\evaluate_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC0662A-32BB-4C74-B9B8-70C8FABA28FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D44A4A-1D42-4C23-A41A-0EED3CE9BF0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,9 +206,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$A$2:$B$11</c:f>
+              <c:f>Sheet1!$A$2:$B$13</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Motor</c:v>
@@ -238,6 +238,12 @@
                     <c:v>Motor</c:v>
                   </c:pt>
                   <c:pt idx="9">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>Penalty</c:v>
                   </c:pt>
                 </c:lvl>
@@ -256,6 +262,9 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>1/28/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1/29/2022</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -270,10 +279,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:f>Sheet1!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3280</c:v>
                 </c:pt>
@@ -303,6 +312,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-552</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4760</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -346,9 +361,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$A$2:$B$11</c:f>
+              <c:f>Sheet1!$A$2:$B$13</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Motor</c:v>
@@ -378,6 +393,12 @@
                     <c:v>Motor</c:v>
                   </c:pt>
                   <c:pt idx="9">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>Penalty</c:v>
                   </c:pt>
                 </c:lvl>
@@ -396,6 +417,9 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>1/28/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1/29/2022</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -410,10 +434,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$D$2:$D$11</c:f>
+              <c:f>Sheet1!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3260</c:v>
                 </c:pt>
@@ -443,6 +467,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-306</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6080</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -486,9 +516,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$A$2:$B$11</c:f>
+              <c:f>Sheet1!$A$2:$B$13</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Motor</c:v>
@@ -518,6 +548,12 @@
                     <c:v>Motor</c:v>
                   </c:pt>
                   <c:pt idx="9">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>Penalty</c:v>
                   </c:pt>
                 </c:lvl>
@@ -536,6 +572,9 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>1/28/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1/29/2022</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -550,10 +589,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$E$2:$E$11</c:f>
+              <c:f>Sheet1!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3080</c:v>
                 </c:pt>
@@ -582,7 +621,13 @@
                   <c:v>2840</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-402</c:v>
+                  <c:v>-306</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5680</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -626,9 +671,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$A$2:$B$11</c:f>
+              <c:f>Sheet1!$A$2:$B$13</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Motor</c:v>
@@ -658,6 +703,12 @@
                     <c:v>Motor</c:v>
                   </c:pt>
                   <c:pt idx="9">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>Penalty</c:v>
                   </c:pt>
                 </c:lvl>
@@ -676,6 +727,9 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>1/28/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1/29/2022</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -690,10 +744,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$F$2:$F$11</c:f>
+              <c:f>Sheet1!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3360</c:v>
                 </c:pt>
@@ -723,6 +777,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-474</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5360</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -753,61 +813,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Georgia" panose="02040502050405020303" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Days</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Georgia" panose="02040502050405020303" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -827,10 +832,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Georgia" panose="02040502050405020303" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -844,7 +846,7 @@
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="0"/>
+        <c:lblOffset val="10"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -878,10 +880,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Georgia" panose="02040502050405020303" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -890,7 +889,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Seconds</a:t>
+                  <a:t>Sec(s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -910,10 +909,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="Georgia" panose="02040502050405020303" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
@@ -944,10 +940,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Georgia" panose="02040502050405020303" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -961,6 +954,59 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="0"/>
+        <c:showVertBorder val="0"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="48000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="97000"/>
+                    <a:lumOff val="3000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Georgia" panose="02040502050405020303" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -969,63 +1015,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.79628578887658807"/>
-          <c:y val="0.18797052963717031"/>
-          <c:w val="0.18300560073276229"/>
-          <c:h val="0.25607850602013471"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:pattFill prst="pct10">
-          <a:fgClr>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:fgClr>
-          <a:bgClr>
-            <a:schemeClr val="bg1"/>
-          </a:bgClr>
-        </a:pattFill>
-        <a:ln cap="rnd">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Georgia" panose="02040502050405020303" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1042,12 +1031,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1058,6 +1042,9 @@
     <a:p>
       <a:pPr>
         <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:latin typeface="Georgia" panose="02040502050405020303" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
@@ -1921,15 +1908,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="117" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2150,8 +2139,8 @@
         <v>-306</v>
       </c>
       <c r="E11" s="1">
-        <f>-134*3</f>
-        <v>-402</v>
+        <f>-102*3</f>
+        <v>-306</v>
       </c>
       <c r="F11" s="1">
         <f>-158*3</f>
@@ -2165,20 +2154,36 @@
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="C12" s="1">
+        <v>4760</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6080</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5680</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5360</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="C13" s="1">
+        <v>-921</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-378</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-366</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-828</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">

--- a/evaluate_model/final_report.xlsx
+++ b/evaluate_model/final_report.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Thesis\evaluate_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D44A4A-1D42-4C23-A41A-0EED3CE9BF0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1A6C4C-F0B8-4ACC-85E9-D5EE83331E6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -52,6 +53,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,7 +112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -119,11 +123,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF93003A"/>
+      <color rgb="FFFF618D"/>
       <color rgb="FF7187C0"/>
-      <color rgb="FFFF618D"/>
-      <color rgb="FF93003A"/>
+      <color rgb="FF0D1B9E"/>
       <color rgb="FFFF005E"/>
-      <color rgb="FF0D1B9E"/>
       <color rgb="FF4C51B1"/>
       <color rgb="FFB8B89C"/>
       <color rgb="FF273AED"/>
@@ -249,22 +253,22 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1/24/2022</c:v>
+                    <c:v>2022-01-24</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1/25/2022</c:v>
+                    <c:v>2022-01-25</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1/26/2022</c:v>
+                    <c:v>2022-01-26</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1/27/2022</c:v>
+                    <c:v>2022-01-27</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1/28/2022</c:v>
+                    <c:v>2022-01-28</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1/29/2022</c:v>
+                    <c:v>2022-01-29</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -404,22 +408,22 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1/24/2022</c:v>
+                    <c:v>2022-01-24</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1/25/2022</c:v>
+                    <c:v>2022-01-25</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1/26/2022</c:v>
+                    <c:v>2022-01-26</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1/27/2022</c:v>
+                    <c:v>2022-01-27</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1/28/2022</c:v>
+                    <c:v>2022-01-28</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1/29/2022</c:v>
+                    <c:v>2022-01-29</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -559,22 +563,22 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1/24/2022</c:v>
+                    <c:v>2022-01-24</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1/25/2022</c:v>
+                    <c:v>2022-01-25</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1/26/2022</c:v>
+                    <c:v>2022-01-26</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1/27/2022</c:v>
+                    <c:v>2022-01-27</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1/28/2022</c:v>
+                    <c:v>2022-01-28</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1/29/2022</c:v>
+                    <c:v>2022-01-29</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -714,22 +718,22 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1/24/2022</c:v>
+                    <c:v>2022-01-24</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1/25/2022</c:v>
+                    <c:v>2022-01-25</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1/26/2022</c:v>
+                    <c:v>2022-01-26</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1/27/2022</c:v>
+                    <c:v>2022-01-27</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1/28/2022</c:v>
+                    <c:v>2022-01-28</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1/29/2022</c:v>
+                    <c:v>2022-01-29</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1059,7 +1063,879 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naïve Bayes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0D1B9E"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$2:$B$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2022-01-24</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2022-01-25</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2022-01-26</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2022-01-27</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2022-01-28</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2022-01-29</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3280</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-936</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2760</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3360</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-660</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3480</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1740</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-552</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4760</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EEE7-4E6A-A90A-043352587F8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7187C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$2:$B$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2022-01-24</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2022-01-25</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2022-01-26</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2022-01-27</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2022-01-28</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2022-01-29</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3260</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4840</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6520</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-675</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-306</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6080</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-378</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EEE7-4E6A-A90A-043352587F8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ensemble Stacking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF618D"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$2:$B$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2022-01-24</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2022-01-25</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2022-01-26</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2022-01-27</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2022-01-28</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2022-01-29</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3080</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3880</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4430</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-633</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2840</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-306</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5680</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EEE7-4E6A-A90A-043352587F8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="93003A"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$2:$B$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Motor</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Penalty</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2022-01-24</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2022-01-25</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2022-01-26</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2022-01-27</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2022-01-28</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2022-01-29</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-714</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3480</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-810</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-864</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-474</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5360</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-828</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EEE7-4E6A-A90A-043352587F8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="950933391"/>
+        <c:axId val="950932975"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="950933391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Georgia" panose="02040502050405020303" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="950932975"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="950932975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-2000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Georgia" panose="02040502050405020303" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sec(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Georgia" panose="02040502050405020303" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Georgia" panose="02040502050405020303" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="950933391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="0"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Georgia" panose="02040502050405020303" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Georgia" panose="02040502050405020303" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1602,6 +2478,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1627,6 +3006,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>453359</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167639</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4AAE69E-64C5-48ED-87DB-55E80B2A4D71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1908,8 +3330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="117" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView topLeftCell="B19" zoomScale="119" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2226,4 +3648,19 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6401C7A0-9BD0-41E3-A702-B9AB5B02E904}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>